--- a/qPCR/input/Table S1.xlsx
+++ b/qPCR/input/Table S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\DEJAVNOSTI\OMIKE\pISA-Projects\_p_Endophytes\_I_Bsubtilis\Article\Submission_NewPhytologist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majaz\Desktop\backup\GitHub\Bacillus-Pti5\qPCR\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D3331-BCEC-4AC8-B284-6A75308CCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F2F23-9D02-497D-9763-6847C69258B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caption" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="50">
   <si>
     <t>Sample ID</t>
   </si>
@@ -306,6 +306,9 @@
       </rPr>
       <t>Relative expressions (relative to the endogenous control, see methods) of several genes (BGLU2, HSP70, RBOHD, 13-LOX, CAB, CPI8, PTI5) were measured in roots by quantitative PCR (qPCR). Welch's t-test was used to determine differences between groups (see sheet Statistics). ns: not statisticaly sgnificant, *:  p-value &lt; 0.05.</t>
     </r>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -778,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F5AD7B-A979-4D0C-AF45-D055C15D51A2}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1000,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,11 +1016,12 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1034,28 +1038,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1071,30 +1078,33 @@
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6">
         <v>6.5515739999999996</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>0.26464300000000002</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>1.145216</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>4.3730999999999999E-2</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>2.2214000000000001E-2</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>5.277031</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>2.7931590000000002</v>
       </c>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1110,29 +1120,32 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6">
         <v>1.4040000000000001E-3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>4.1190000000000003E-3</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>0.32501600000000003</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>8.2826999999999998E-2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>2.4190000000000001E-3</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>1.738685</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>4.1886039999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1148,30 +1161,33 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6">
         <v>5.7020999999999997</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>2.0594000000000001E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>1.8799410000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.115879</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>2.0319E-2</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>5.8694100000000002</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>3.9125860000000001</v>
       </c>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1187,30 +1203,33 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
         <v>6.4401279999999996</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>2.0594000000000001E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>1.563572</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.190217</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>2.8954000000000001E-2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>5.4474359999999997</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>3.8228149999999999</v>
       </c>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1224,30 +1243,33 @@
         <v>21</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="6">
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.53597899999999998</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>2.0594000000000001E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>0.91371800000000003</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>1.8730450000000001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>1.7314639999999999</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>0.46768900000000002</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>6.5181000000000003E-2</v>
       </c>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1261,29 +1283,32 @@
         <v>21</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="6">
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="6">
         <v>0.75775199999999998</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>1.368682</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>0.84270199999999995</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>0.52561000000000002</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>1.393891</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>0.48542200000000002</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>0.187612</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1297,29 +1322,32 @@
         <v>21</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="6">
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6">
         <v>1.4040000000000001E-3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>1.460458</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>0.69309900000000002</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>1.0433889999999999</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>1.8343970000000001</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>0.27954299999999999</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>8.8752999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1333,29 +1361,32 @@
         <v>21</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="6">
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="6">
         <v>0.29267799999999999</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>1.3946559999999999</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>0.7117</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>1.5198430000000001</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>1.6230150000000001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>0.37827899999999998</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>7.5828999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1371,29 +1402,32 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="6">
         <v>6.1952639999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>0.63531300000000002</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>1.434399</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.130943</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>0.237286</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>2.8757519999999999</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>3.8140019999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1409,29 +1443,32 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6">
         <v>2.9246620000000001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>0.62895699999999999</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>1.26668</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>0.71811700000000001</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>1.1336919999999999</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>3.2438940000000001</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>4.5383930000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1447,29 +1484,32 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6">
         <v>4.7922890000000002</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <v>0.84884199999999999</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>1.0491330000000001</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>0.72796499999999997</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>1.2199359999999999</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>2.276475</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>2.1543139999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1485,29 +1525,32 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6">
         <v>0.952627</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>0.58197299999999996</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>0.94081300000000001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>0.66410400000000003</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>1.184239</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>1.917111</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>2.6156860000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1521,29 +1564,32 @@
         <v>21</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="6">
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="6">
         <v>0.59575999999999996</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>0.751278</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>0.68411200000000005</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>0.61306899999999998</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>1.250686</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>0.60381300000000004</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>0.55147999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1557,29 +1603,32 @@
         <v>21</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="6">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="6">
         <v>1.106409</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>0.64494899999999999</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>0.815326</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>0.59277999999999997</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>1.098395</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>0.74163999999999997</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>0.86843099999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1593,29 +1642,32 @@
         <v>21</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="6">
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="6">
         <v>0.606796</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>0.95960999999999996</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>0.93948600000000004</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>0.92111600000000005</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>1.506167</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>0.463756</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>0.96450400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1629,29 +1681,32 @@
         <v>21</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="6">
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="6">
         <v>0.25297199999999997</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <v>0.64060499999999998</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>0.40649200000000002</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>0.75175499999999995</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>0.81914799999999999</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>0.61879399999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1665,29 +1720,32 @@
         <v>35</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="6">
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="6">
         <v>1.7196260000000001</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <v>1.8274710000000001</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>0.59108499999999997</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>0.53242500000000004</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>0.91001399999999999</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>0.14658299999999999</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>5.3212000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1701,29 +1759,32 @@
         <v>35</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="6">
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="6">
         <v>0.45726</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <v>2.0594000000000001E-2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>0.81120099999999995</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>1.929529</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>2.0821329999999998</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <v>0.200429</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="6">
         <v>3.4358E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1737,35 +1798,38 @@
         <v>35</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="6">
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="6">
         <v>1.504343</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <v>1.4857629999999999</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>0.73151500000000003</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>0.56893800000000005</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>0.74533000000000005</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <v>0.2079</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>9.5975000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1773,14 +1837,15 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1788,14 +1853,15 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1803,14 +1869,15 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1818,14 +1885,15 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1833,29 +1901,31 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1863,14 +1933,15 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1878,14 +1949,15 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1893,13 +1965,13 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -1907,13 +1979,13 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1921,13 +1993,13 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -1935,13 +2007,13 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -1949,6 +2021,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3195,26 +3268,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b6814e5f-7717-498d-b3f9-a579343416c6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6e8d83df-c883-47f3-baec-2c3f36f86628" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F4E8FA4049DE794D9F5392A56F29A770" ma:contentTypeVersion="14" ma:contentTypeDescription="Ustvari nov dokument." ma:contentTypeScope="" ma:versionID="de279f6a2fb0de2ea7727a3d63b19b44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6814e5f-7717-498d-b3f9-a579343416c6" xmlns:ns3="6e8d83df-c883-47f3-baec-2c3f36f86628" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab6d3b7bf1b2bb4a5857245e2e29a00" ns2:_="" ns3:_="">
     <xsd:import namespace="b6814e5f-7717-498d-b3f9-a579343416c6"/>
@@ -3443,7 +3496,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b6814e5f-7717-498d-b3f9-a579343416c6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6e8d83df-c883-47f3-baec-2c3f36f86628" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF0E3C9D-AF9C-4065-9487-DA44FC9B250D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b6814e5f-7717-498d-b3f9-a579343416c6"/>
+    <ds:schemaRef ds:uri="6e8d83df-c883-47f3-baec-2c3f36f86628"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47AE928-FFC5-4E41-90D6-BE7C2F0E55F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A56411B5-B9A9-4470-84DC-F755F2F8BA09}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3458,16 +3558,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47AE928-FFC5-4E41-90D6-BE7C2F0E55F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF0E3C9D-AF9C-4065-9487-DA44FC9B250D}"/>
 </file>